--- a/01-Class-Activities/Mon-Wed-Class/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
+++ b/01-Class-Activities/Mon-Wed-Class/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\2\Activities\02-Ins_NamedRanges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98452\Documents\GitHub\GWU-ARL-DATA-PT-09-2019-U-C\01-Class-Activities\Mon-Wed-Class\01-Excel\2\Activities\02-Ins_NamedRanges\Solved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="DC6A508CB724DE4F1551BDFB3918CC2CF653C664" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{92A167DC-55F9-44DC-860D-3D15655D96C2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="443" windowWidth="25598" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="25605" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping Trip" sheetId="1" r:id="rId1"/>
@@ -24,10 +23,10 @@
     <definedName name="TaxPrice">'Shopping Trip'!$D$2:$D$6</definedName>
     <definedName name="TaxRate">'Shopping Trip'!$G$2</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -138,7 +137,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,6 +147,7 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -180,7 +180,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{0E42069A-E08B-4EFF-B4B9-15BAA96C2BC3}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -492,22 +492,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -543,7 +541,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -559,7 +557,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -578,7 +576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -598,7 +596,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -613,6 +611,16 @@
         <f t="shared" si="0"/>
         <v>36.299999999999997</v>
       </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
